--- a/DataAnalysis/7Data/ARPY57Data.xlsx
+++ b/DataAnalysis/7Data/ARPY57Data.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edriklee/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91583F54-0D40-0B46-A9BF-06583A5C651D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A01EC2A-6903-9E43-ADA6-C3EFF6510FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{C75C41F5-A3B1-0341-98B2-13F69EEECAB9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{C75C41F5-A3B1-0341-98B2-13F69EEECAB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>baseline 1</t>
   </si>
@@ -49,6 +51,30 @@
   </si>
   <si>
     <t>gpt</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>LLM</t>
+  </si>
+  <si>
+    <t>Text1</t>
+  </si>
+  <si>
+    <t>Text2</t>
+  </si>
+  <si>
+    <t>Text3</t>
+  </si>
+  <si>
+    <t>LLM1</t>
+  </si>
+  <si>
+    <t>LLM2</t>
+  </si>
+  <si>
+    <t>LLM3</t>
   </si>
 </sst>
 </file>
@@ -402,7 +428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7741761-D7BB-4948-976A-CF1A99020603}">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
@@ -1876,4 +1902,197 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95C3BF8-559C-6B47-AB7A-CD078F839327}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41C934C8-5D7D-9143-ACD1-E70491EA6541}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>